--- a/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_SK.xlsx
+++ b/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_SK.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_LDV ZEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACCE2013-3E93-47CB-B721-4ADD647A763F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C47AF63F-6130-4CEA-BA4E-1D972E69637B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6DAD3D2C-FDA2-4EA3-B2EA-9EEBCC768560}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9DA0A5A5-DC4E-4254-A93D-80F814BFA531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -484,11 +484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB7A1A-E453-4943-B636-7B4D29F53171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0950D05C-5F03-43AB-AA41-E07F923BB67C}">
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X8"/>
+      <selection sqref="A1:X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,16 +619,16 @@
         <v>0.6</v>
       </c>
       <c r="T3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
